--- a/flows/EMB_fund_flow_data.xlsx
+++ b/flows/EMB_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4081"/>
+  <dimension ref="A1:B4095"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41245,6 +41245,146 @@
         <v>-114.29223</v>
       </c>
     </row>
+    <row r="4082">
+      <c r="A4082" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4082" t="n">
+        <v>-61.65124</v>
+      </c>
+    </row>
+    <row r="4083">
+      <c r="A4083" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4083" t="n">
+        <v>-17.6516</v>
+      </c>
+    </row>
+    <row r="4084">
+      <c r="A4084" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4084" t="n">
+        <v>-502.61234</v>
+      </c>
+    </row>
+    <row r="4085">
+      <c r="A4085" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4085" t="n">
+        <v>-44.13955</v>
+      </c>
+    </row>
+    <row r="4086">
+      <c r="A4086" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4086" t="n">
+        <v>-35.39344</v>
+      </c>
+    </row>
+    <row r="4087">
+      <c r="A4087" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4087" t="n">
+        <v>-26.61897</v>
+      </c>
+    </row>
+    <row r="4088">
+      <c r="A4088" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4088" t="n">
+        <v>-35.55748</v>
+      </c>
+    </row>
+    <row r="4089">
+      <c r="A4089" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4089" t="n">
+        <v>26.73003</v>
+      </c>
+    </row>
+    <row r="4090">
+      <c r="A4090" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B4090" t="n">
+        <v>-71.1968</v>
+      </c>
+    </row>
+    <row r="4091">
+      <c r="A4091" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B4091" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4092">
+      <c r="A4092" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B4092" t="n">
+        <v>-35.57812</v>
+      </c>
+    </row>
+    <row r="4093">
+      <c r="A4093" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B4093" t="n">
+        <v>35.41304</v>
+      </c>
+    </row>
+    <row r="4094">
+      <c r="A4094" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B4094" t="n">
+        <v>-79.54911</v>
+      </c>
+    </row>
+    <row r="4095">
+      <c r="A4095" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="B4095" t="n">
+        <v>-273.67017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
